--- a/Prohibited flying areas.xlsx
+++ b/Prohibited flying areas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROG\Desktop\GP Git\GP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F802001D-8B54-4074-BFF2-71231A5A3C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F89398B-35C2-49D6-AE29-D85EE13DD2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="90" windowWidth="14400" windowHeight="7822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -504,8 +504,8 @@
   </sheetPr>
   <dimension ref="A1:Z1036"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Y42"/>
+    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2214,31 +2214,31 @@
         <v>33.7292261225126</v>
       </c>
       <c r="F32" s="5">
+        <v>31.011564307135</v>
+      </c>
+      <c r="G32" s="5">
+        <v>33.730015310536899</v>
+      </c>
+      <c r="H32" s="5">
         <v>30.9661048994145</v>
       </c>
-      <c r="G32" s="5">
+      <c r="I32" s="5">
         <v>33.774378819090799</v>
       </c>
-      <c r="H32" s="5">
+      <c r="J32" s="5">
         <v>31.010376100885399</v>
       </c>
-      <c r="I32" s="5">
+      <c r="K32" s="5">
         <v>33.909375589792603</v>
       </c>
-      <c r="J32" s="5">
+      <c r="L32" s="5">
         <v>31.069619788060599</v>
       </c>
-      <c r="K32" s="5">
+      <c r="M32" s="5">
         <v>33.9060829855948</v>
       </c>
-      <c r="L32" s="5">
-        <v>31.011564307135</v>
-      </c>
-      <c r="M32" s="5">
-        <v>33.730015310536899</v>
-      </c>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -2310,19 +2310,19 @@
         <v>33.552165066262802</v>
       </c>
       <c r="J34" s="5">
+        <v>28.177186193224902</v>
+      </c>
+      <c r="K34" s="5">
+        <v>33.557925691029403</v>
+      </c>
+      <c r="L34" s="5">
         <v>28.1681265400616</v>
       </c>
-      <c r="K34" s="5">
+      <c r="M34" s="5">
         <v>33.633520245559502</v>
       </c>
-      <c r="L34" s="5">
-        <v>28.177186193224902</v>
-      </c>
-      <c r="M34" s="5">
-        <v>33.557925691029403</v>
-      </c>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
@@ -30480,8 +30480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E440F3CB-18E2-48BC-8A9E-DC6C448857E2}">
   <dimension ref="A1:AP25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -31141,7 +31141,7 @@
         <v>31.391581590661598</v>
       </c>
       <c r="AF6" s="5">
-        <v>30.9661048994145</v>
+        <v>31.011564307135</v>
       </c>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5">
@@ -31251,7 +31251,7 @@
         <v>25.838289241321998</v>
       </c>
       <c r="AF7" s="5">
-        <v>33.774378819090799</v>
+        <v>33.730015310536899</v>
       </c>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5">
@@ -31361,7 +31361,7 @@
         <v>31.4273195659955</v>
       </c>
       <c r="AF8" s="5">
-        <v>31.010376100885399</v>
+        <v>30.9661048994145</v>
       </c>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5">
@@ -31471,7 +31471,7 @@
         <v>25.961415403033602</v>
       </c>
       <c r="AF9" s="5">
-        <v>33.909375589792603</v>
+        <v>33.774378819090799</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5">
@@ -31739,7 +31739,7 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5">
-        <v>31.011564307135</v>
+        <v>31.010376100885399</v>
       </c>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5">
@@ -31827,7 +31827,7 @@
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5">
-        <v>33.730015310536899</v>
+        <v>33.909375589792603</v>
       </c>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5">
